--- a/Acessos.xlsx
+++ b/Acessos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\crudphp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54126FC-685C-47B7-83B5-248EE296C1C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0EF58A-BB2E-4447-8180-65171FDB448F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{DBC2A761-FE64-4988-90F9-10DE750C5B19}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>00001</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>Tabelas de usuarios</t>
+  </si>
+  <si>
+    <t>00012</t>
+  </si>
+  <si>
+    <t>Filial</t>
   </si>
 </sst>
 </file>
@@ -446,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F226ECDD-A38D-4CFA-9CA7-2AD5286D58DA}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,6 +538,14 @@
       </c>
       <c r="B10" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Acessos.xlsx
+++ b/Acessos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\crudphp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0EF58A-BB2E-4447-8180-65171FDB448F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5F96C0-85BF-4BF0-A5A5-DA84CBB4B6EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{DBC2A761-FE64-4988-90F9-10DE750C5B19}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DBC2A761-FE64-4988-90F9-10DE750C5B19}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>00001</t>
   </si>
@@ -57,9 +57,6 @@
     <t>00011</t>
   </si>
   <si>
-    <t>Tabelas de Configuração</t>
-  </si>
-  <si>
     <t>00010</t>
   </si>
   <si>
@@ -100,6 +97,15 @@
   </si>
   <si>
     <t>Filial</t>
+  </si>
+  <si>
+    <t>00013</t>
+  </si>
+  <si>
+    <t>Selecione Filial</t>
+  </si>
+  <si>
+    <t>Selecione Tabelas de Configuração</t>
   </si>
 </sst>
 </file>
@@ -452,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F226ECDD-A38D-4CFA-9CA7-2AD5286D58DA}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,50 +492,50 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
         <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -537,15 +543,23 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -554,6 +568,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100EDF453DA4A72514D924B4BA07F2176CA" ma:contentTypeVersion="3" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="599ba0d05d657d26d7351c22a7fc457d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c81b2482-58ae-442a-92d8-4b5ec1343f0b" xmlns:ns4="6c927086-633a-4792-9176-10e79336c2f0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="639d36ca2fc04b5f1c3c4115bab8b2d8" ns3:_="" ns4:_="">
     <xsd:import namespace="c81b2482-58ae-442a-92d8-4b5ec1343f0b"/>
@@ -710,22 +739,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD0D3205-E7D7-4633-A70D-55B4199DBA77}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="6c927086-633a-4792-9176-10e79336c2f0"/>
+    <ds:schemaRef ds:uri="c81b2482-58ae-442a-92d8-4b5ec1343f0b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{941CE4A4-60E8-4A51-8EAC-EC309F3920D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6E99E30-8BC7-4E33-AAFB-69A2C1DFC404}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -742,29 +781,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{941CE4A4-60E8-4A51-8EAC-EC309F3920D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD0D3205-E7D7-4633-A70D-55B4199DBA77}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="6c927086-633a-4792-9176-10e79336c2f0"/>
-    <ds:schemaRef ds:uri="c81b2482-58ae-442a-92d8-4b5ec1343f0b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Acessos.xlsx
+++ b/Acessos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\crudphp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5F96C0-85BF-4BF0-A5A5-DA84CBB4B6EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D96A09-C799-4F7E-9262-33E3565DB69C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DBC2A761-FE64-4988-90F9-10DE750C5B19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DBC2A761-FE64-4988-90F9-10DE750C5B19}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>00001</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>Selecione Tabelas de Configuração</t>
+  </si>
+  <si>
+    <t>00014</t>
+  </si>
+  <si>
+    <t>Usuario tabela</t>
   </si>
 </sst>
 </file>
@@ -458,15 +464,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F226ECDD-A38D-4CFA-9CA7-2AD5286D58DA}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,7 +480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -482,7 +488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -490,7 +496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -498,7 +504,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -506,7 +512,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -514,7 +520,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -522,7 +528,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -530,7 +536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -538,7 +544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -546,7 +552,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -554,12 +560,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -568,21 +582,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100EDF453DA4A72514D924B4BA07F2176CA" ma:contentTypeVersion="3" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="599ba0d05d657d26d7351c22a7fc457d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c81b2482-58ae-442a-92d8-4b5ec1343f0b" xmlns:ns4="6c927086-633a-4792-9176-10e79336c2f0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="639d36ca2fc04b5f1c3c4115bab8b2d8" ns3:_="" ns4:_="">
     <xsd:import namespace="c81b2482-58ae-442a-92d8-4b5ec1343f0b"/>
@@ -739,32 +738,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD0D3205-E7D7-4633-A70D-55B4199DBA77}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="6c927086-633a-4792-9176-10e79336c2f0"/>
-    <ds:schemaRef ds:uri="c81b2482-58ae-442a-92d8-4b5ec1343f0b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{941CE4A4-60E8-4A51-8EAC-EC309F3920D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6E99E30-8BC7-4E33-AAFB-69A2C1DFC404}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -781,4 +770,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{941CE4A4-60E8-4A51-8EAC-EC309F3920D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD0D3205-E7D7-4633-A70D-55B4199DBA77}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="6c927086-633a-4792-9176-10e79336c2f0"/>
+    <ds:schemaRef ds:uri="c81b2482-58ae-442a-92d8-4b5ec1343f0b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Acessos.xlsx
+++ b/Acessos.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\crudphp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D96A09-C799-4F7E-9262-33E3565DB69C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C90698F-D405-40EE-BF8A-AB9C18186E36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DBC2A761-FE64-4988-90F9-10DE750C5B19}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DBC2A761-FE64-4988-90F9-10DE750C5B19}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Funcoes" sheetId="1" r:id="rId1"/>
+    <sheet name="Parametros" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>00001</t>
   </si>
@@ -112,6 +113,36 @@
   </si>
   <si>
     <t>Usuario tabela</t>
+  </si>
+  <si>
+    <t>00015</t>
+  </si>
+  <si>
+    <t>Leituras</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Texto</t>
+  </si>
+  <si>
+    <t>Formato de data no BD</t>
+  </si>
+  <si>
+    <t>Dominio email Santana</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Perfil padrao</t>
   </si>
 </sst>
 </file>
@@ -464,15 +495,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F226ECDD-A38D-4CFA-9CA7-2AD5286D58DA}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,7 +511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -488,7 +519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -496,7 +527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -504,7 +535,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -512,7 +543,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -520,7 +551,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -528,7 +559,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -536,7 +567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -544,7 +575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -552,7 +583,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -560,7 +591,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -568,12 +599,20 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -581,7 +620,81 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0FC087-A7A7-4BDA-9F2E-34C7377123C2}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100EDF453DA4A72514D924B4BA07F2176CA" ma:contentTypeVersion="3" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="599ba0d05d657d26d7351c22a7fc457d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c81b2482-58ae-442a-92d8-4b5ec1343f0b" xmlns:ns4="6c927086-633a-4792-9176-10e79336c2f0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="639d36ca2fc04b5f1c3c4115bab8b2d8" ns3:_="" ns4:_="">
     <xsd:import namespace="c81b2482-58ae-442a-92d8-4b5ec1343f0b"/>
@@ -738,22 +851,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD0D3205-E7D7-4633-A70D-55B4199DBA77}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="6c927086-633a-4792-9176-10e79336c2f0"/>
+    <ds:schemaRef ds:uri="c81b2482-58ae-442a-92d8-4b5ec1343f0b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{941CE4A4-60E8-4A51-8EAC-EC309F3920D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6E99E30-8BC7-4E33-AAFB-69A2C1DFC404}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -770,29 +893,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{941CE4A4-60E8-4A51-8EAC-EC309F3920D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD0D3205-E7D7-4633-A70D-55B4199DBA77}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="6c927086-633a-4792-9176-10e79336c2f0"/>
-    <ds:schemaRef ds:uri="c81b2482-58ae-442a-92d8-4b5ec1343f0b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>